--- a/jobaid.xlsx
+++ b/jobaid.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Poojitha\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9620E3-AB10-454E-B9D5-7117F075A288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FFCDEBC9-6D47-4EB0-B924-7A8EEADC9D21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
   <si>
     <t>q_id</t>
   </si>
@@ -205,13 +199,19 @@
   </si>
   <si>
     <t>Relative positioning moves the element from its normal position without affecting other elements. Absolute positioning places the element relative to its nearest positioned ancestor or the page if there is none. Fixed positioning places the element relative to the browser window, so it stays in the same place even when you scroll.</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Easy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,7 +302,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -354,7 +354,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -548,27 +548,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E65266-3289-46AF-9166-87E4E826C0C5}">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="89.88671875" customWidth="1"/>
     <col min="3" max="3" width="47.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,8 +581,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -595,8 +598,11 @@
       <c r="D2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -609,8 +615,11 @@
       <c r="D3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -623,8 +632,11 @@
       <c r="D4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -638,7 +650,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -652,7 +664,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -665,8 +677,11 @@
       <c r="D7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -679,8 +694,11 @@
       <c r="D8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -693,8 +711,11 @@
       <c r="D9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -708,7 +729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -721,8 +742,11 @@
       <c r="D11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -735,8 +759,11 @@
       <c r="D12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -749,8 +776,11 @@
       <c r="D13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -763,8 +793,11 @@
       <c r="D14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -777,8 +810,11 @@
       <c r="D15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -792,7 +828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -806,7 +842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -820,7 +856,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -834,7 +870,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -848,7 +884,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -862,7 +898,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -876,7 +912,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -890,7 +926,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -904,7 +940,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -918,7 +954,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -932,7 +968,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
